--- a/CHILE/Residuos/Emisiones CO2eq Residuos Chile 1990-2016.xlsx
+++ b/CHILE/Residuos/Emisiones CO2eq Residuos Chile 1990-2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATAICC\CHILE\Residuos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\Residuos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4CC05D3-FEF4-4F06-AD8D-072CBEC850CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F1D345-F829-4BC3-94CB-FBE2C331F949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="14">
   <si>
     <t>Emisiones por Tipo de emisión</t>
   </si>
@@ -45,12 +45,30 @@
   <si>
     <t>Año</t>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Emisiones (kton CO2eq)</t>
+  </si>
+  <si>
+    <t>Residuos</t>
+  </si>
+  <si>
+    <t>CO2eq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +218,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +405,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -542,7 +572,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,11 +580,14 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,7 +635,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -621,6 +654,86 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -644,126 +757,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -779,7 +772,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -796,16 +789,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CO2EQ_Residuos_Chile" displayName="CO2EQ_Residuos_Chile" ref="A2:G29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A2:G29"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Año" dataDxfId="8"/>
-    <tableColumn id="2" name="5.A - Disposición de residuos sólidos" dataDxfId="7"/>
-    <tableColumn id="3" name="5.B - Tratamiento biológico de residuos sólidos" dataDxfId="6"/>
-    <tableColumn id="4" name="5.C - Incineración y quema abierta de residuos" dataDxfId="5"/>
-    <tableColumn id="5" name="5.D - Tratamiento y descarga de aguas residuales" dataDxfId="4"/>
-    <tableColumn id="6" name="5.E - Otros" dataDxfId="3"/>
-    <tableColumn id="7" name="5 - Residuos" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CO2EQ_Residuos_Chile" displayName="CO2EQ_Residuos_Chile" ref="A2:E164" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A2:E164" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F0866C1B-6481-4DAB-8BAF-9990FA4FA6A3}" name="Sector" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{422D4438-B907-4ED6-A1DB-CF840C3148C3}" name="Proceso" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{851499E1-C250-42B4-9DE5-13A518FA9848}" name="Gas" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{0594CC25-0F01-4041-8518-1C56754459A6}" name="Emisiones (kton CO2eq)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1107,683 +1098,2807 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2288.6660201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2336.7838603999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2386.2256432999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2438.9843833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2527.0549513999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2616.1881460999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2704.9055262000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2795.7729463000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2889.0546653000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2981.0128421999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3071.6990357999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3162.4318702999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3252.3786823999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3389.8505532999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3541.7171039999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3698.6927338999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3829.5292075000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3483.1741833999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3282.551289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3106.0589448999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3142.0725745999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3274.0357196999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3293.8432475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3832.7610169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3867.9327244999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4209.2303591999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4305.2741168000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2">
+        <v>17.045999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <v>17.045999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2">
+        <v>17.045999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
+        <v>17.045999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2">
+        <v>17.045999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2">
+        <v>17.045999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2">
+        <v>17.045999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2">
+        <v>19.3188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2">
+        <v>19.3188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2">
+        <v>19.3188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20.360499999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2">
+        <v>23.12574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2">
+        <v>35.500188999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2">
+        <v>35.500188999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2">
+        <v>48.046158599999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="2">
+        <v>48.709058599999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2">
+        <v>54.239538600000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2">
+        <v>70.508998599999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2">
+        <v>69.599878599999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2">
+        <v>111.95197659999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2">
+        <v>78.147747199999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2">
+        <v>55.856835099999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2">
+        <v>47.479294299999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2">
+        <v>61.033326500000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2">
+        <v>59.947306900000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2">
+        <v>59.947306900000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="2">
+        <v>59.947306900000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.7964000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.8785E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.9667E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2.2793000000000002E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2.0920999999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.1045E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5.1962500000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5.8227800000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6.5765599999999994E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="2">
+        <v>7.3821100000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="2">
+        <v>8.2649899999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="2">
+        <v>9.2971600000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.1046034</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.11759790000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.1324177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.14919399999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.1678819</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.1894092</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.21303939999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.23981089999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.27020870000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.30441030000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.33883540000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.34250760000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.40737659999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.47901050000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.53308029999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="2">
+        <v>663.58747319999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="2">
+        <v>677.90571320000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2">
+        <v>706.68457469999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2">
+        <v>707.78043490000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="2">
+        <v>713.00622669999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="2">
+        <v>758.06182200000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="2">
+        <v>778.14797339999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="2">
+        <v>765.7450857</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="2">
+        <v>735.24392190000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="2">
+        <v>723.09383500000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="2">
+        <v>730.30662689999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1020.0468784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1373.3845111999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1421.1273332999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1371.3408730000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1481.0618116000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1145.1166000999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1184.3237437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1188.0250214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1146.3727768000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1281.667553</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1323.7789376999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1458.8987331999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1424.2302431999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1475.6019884</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1464.8476886999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1435.3106069</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1990</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2288.6660201</v>
-      </c>
-      <c r="C3" s="2">
-        <v>17.045999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.7964000000000001E-3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>663.58747319999998</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="D138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="2">
         <v>2969.3012896999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>1991</v>
       </c>
-      <c r="B4" s="2">
-        <v>2336.7838603999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>17.045999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.8785E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>677.90571320000004</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="B139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="2">
         <v>3031.7374521000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>1992</v>
       </c>
-      <c r="B5" s="2">
-        <v>2386.2256432999998</v>
-      </c>
-      <c r="C5" s="2">
-        <v>17.045999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.9667E-3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>706.68457469999998</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="2">
         <v>3109.9581846999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>1993</v>
       </c>
-      <c r="B6" s="2">
-        <v>2438.9843833</v>
-      </c>
-      <c r="C6" s="2">
-        <v>17.045999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.2793000000000002E-3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>707.78043490000005</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="B141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="2">
         <v>3163.8130974999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>1994</v>
       </c>
-      <c r="B7" s="2">
-        <v>2527.0549513999999</v>
-      </c>
-      <c r="C7" s="2">
-        <v>17.045999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.0920999999999999E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>713.00622669999996</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="B142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="2">
         <v>3257.1092702000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>1995</v>
       </c>
-      <c r="B8" s="2">
-        <v>2616.1881460999998</v>
-      </c>
-      <c r="C8" s="2">
-        <v>17.045999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.1045E-3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>758.06182200000001</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="B143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="2">
         <v>3391.2980726000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>1996</v>
       </c>
-      <c r="B9" s="2">
-        <v>2704.9055262000002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>17.045999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5.1962500000000002E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>778.14797339999996</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="B144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="2">
         <v>3500.1514621000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
         <v>1997</v>
       </c>
-      <c r="B10" s="2">
-        <v>2795.7729463000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19.3188</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5.8227800000000003E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>765.7450857</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="B145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="2">
         <v>3580.8950598000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>1998</v>
       </c>
-      <c r="B11" s="2">
-        <v>2889.0546653000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>19.3188</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6.5765599999999994E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>735.24392190000003</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="2">
         <v>3643.6831527999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>1999</v>
       </c>
-      <c r="B12" s="2">
-        <v>2981.0128421999998</v>
-      </c>
-      <c r="C12" s="2">
-        <v>19.3188</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7.3821100000000001E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>723.09383500000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="2">
         <v>3723.4992983000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>2000</v>
       </c>
-      <c r="B13" s="2">
-        <v>3071.6990357999998</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20.360499999999998</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8.2649899999999998E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>730.30662689999997</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="B148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="2">
         <v>3822.4488126000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
         <v>2001</v>
       </c>
-      <c r="B14" s="2">
-        <v>3162.4318702999999</v>
-      </c>
-      <c r="C14" s="2">
-        <v>23.12574</v>
-      </c>
-      <c r="D14" s="2">
-        <v>9.2971600000000001E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1020.0468784</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="B149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="2">
         <v>4205.6974602999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>2002</v>
       </c>
-      <c r="B15" s="2">
-        <v>3252.3786823999999</v>
-      </c>
-      <c r="C15" s="2">
-        <v>35.500188999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.1046034</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1373.3845111999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="B150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="2">
         <v>4661.3679860000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
         <v>2003</v>
       </c>
-      <c r="B16" s="2">
-        <v>3389.8505532999998</v>
-      </c>
-      <c r="C16" s="2">
-        <v>35.500188999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.11759790000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1421.1273332999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="B151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="2">
         <v>4846.5956735</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>2004</v>
       </c>
-      <c r="B17" s="2">
-        <v>3541.7171039999998</v>
-      </c>
-      <c r="C17" s="2">
-        <v>48.046158599999998</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.1324177</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1371.3408730000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="B152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="2">
         <v>4961.2365533000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>2005</v>
       </c>
-      <c r="B18" s="2">
-        <v>3698.6927338999999</v>
-      </c>
-      <c r="C18" s="2">
-        <v>48.709058599999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.14919399999999999</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1481.0618116000001</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="B153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="2">
         <v>5228.6127981</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>2006</v>
       </c>
-      <c r="B19" s="2">
-        <v>3829.5292075000002</v>
-      </c>
-      <c r="C19" s="2">
-        <v>54.239538600000003</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.1678819</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1145.1166000999999</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="B154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" s="2">
         <v>5029.0532280999996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>2007</v>
       </c>
-      <c r="B20" s="2">
-        <v>3483.1741833999999</v>
-      </c>
-      <c r="C20" s="2">
-        <v>70.508998599999998</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.1894092</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1184.3237437</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="B155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="2">
         <v>4738.1963348999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>2008</v>
       </c>
-      <c r="B21" s="2">
-        <v>3282.551289</v>
-      </c>
-      <c r="C21" s="2">
-        <v>69.599878599999997</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.21303939999999999</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1188.0250214</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="B156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="2">
         <v>4540.3892284000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
         <v>2009</v>
       </c>
-      <c r="B22" s="2">
-        <v>3106.0589448999999</v>
-      </c>
-      <c r="C22" s="2">
-        <v>111.95197659999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.23981089999999999</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1146.3727768000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="B157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="2">
         <v>4364.6235091999997</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
         <v>2010</v>
       </c>
-      <c r="B23" s="2">
-        <v>3142.0725745999998</v>
-      </c>
-      <c r="C23" s="2">
-        <v>78.147747199999998</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.27020870000000002</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1281.667553</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="B158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="2">
         <v>4502.1580835000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
         <v>2011</v>
       </c>
-      <c r="B24" s="2">
-        <v>3274.0357196999998</v>
-      </c>
-      <c r="C24" s="2">
-        <v>55.856835099999998</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.30441030000000002</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1323.7789376999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="B159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="2">
         <v>4653.9759027999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
         <v>2012</v>
       </c>
-      <c r="B25" s="2">
-        <v>3293.8432475</v>
-      </c>
-      <c r="C25" s="2">
-        <v>47.479294299999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.33883540000000001</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1458.8987331999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="B160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="2">
         <v>4800.5601103999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
         <v>2013</v>
       </c>
-      <c r="B26" s="2">
-        <v>3832.7610169</v>
-      </c>
-      <c r="C26" s="2">
-        <v>61.033326500000001</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.34250760000000002</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1424.2302431999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="B161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="2">
         <v>5318.3670941999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
         <v>2014</v>
       </c>
-      <c r="B27" s="2">
-        <v>3867.9327244999999</v>
-      </c>
-      <c r="C27" s="2">
-        <v>59.947306900000001</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.40737659999999998</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1475.6019884</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="B162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="2">
         <v>5403.8893963999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
         <v>2015</v>
       </c>
-      <c r="B28" s="2">
-        <v>4209.2303591999998</v>
-      </c>
-      <c r="C28" s="2">
-        <v>59.947306900000001</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.47901050000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1464.8476886999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="B163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="2">
         <v>5734.5043653000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
         <v>2016</v>
       </c>
-      <c r="B29" s="2">
-        <v>4305.2741168000002</v>
-      </c>
-      <c r="C29" s="2">
-        <v>59.947306900000001</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.53308029999999995</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1435.3106069</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="B164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="2">
         <v>5801.0651109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
